--- a/Development/Artifacts/Changes From 05 May.xlsx
+++ b/Development/Artifacts/Changes From 05 May.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Bugzilla Ticket No</t>
   </si>
@@ -41,6 +41,39 @@
   </si>
   <si>
     <t>How is done by Developer (Explain in detail)</t>
+  </si>
+  <si>
+    <t>EFT Changes. Façade, Service Layer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE MOLSAEFTUSERCONFIGURATION(CONFIGURATIONID BIGINT not null, USERNAME1 CHARACTER(64), USERNAME2 CHARACTER(64), 
+USERTITLE1 CHARACTER(100), USERTITLE2 CHARACTER(100), EFFECTIVEDATETIME DATE, RECORDSTATUS CHARACTER(10), VERSIONNO INT not null, LASTWRITTEN DATE);
+ALTER TABLE MOLSAEFTUSERCONFIGURATION ADD CONSTRAINT MOLSAEFTUSERCONFIGURATION PRIMARY KEY(CONFIGURATIONID);
+INSERT INTO FunctionIdentifier (fidName, projectPackage, codePackage, description, fidEnabled) values ('MOLSAEFTUserConfiguration.configureUsersForEFTLetterConfiguration', 'curam', 'molsa.eft.eftletter.facade', 'curam.molsa.eft.eftletter.facade.MOLSAEFTUserConfiguration.configureUsersForEFTLetterConfiguration', 'Y');
+INSERT INTO FunctionIdentifier (fidName, projectPackage, codePackage, description, fidEnabled) values ('MOLSAEFTUserConfiguration.listAllUsersByPosition', 'curam', 'molsa.eft.eftletter.facade', 'curam.molsa.eft.eftletter.facade.MOLSAEFTUserConfiguration.listAllUsersByPosition', 'Y');
+INSERT INTO FunctionIdentifier (fidName, projectPackage, codePackage, description, fidEnabled) values ('MOLSAEFTUserConfiguration.listUsersConfiguredForEFTLetter', 'curam', 'molsa.eft.eftletter.facade', 'curam.molsa.eft.eftletter.facade.MOLSAEFTUserConfiguration.listUsersConfiguredForEFTLetter', 'Y');
+INSERT INTO SECURITYIDENTIFIER (DESCRIPTION, LASTWRITTEN, SIDNAME, SIDTYPE, VERSIONNO) VALUES (null, '2015-03-03 03:42:25', 'MOLSAEFTUserConfiguration.configureUsersForEFTLetterConfiguration', 'FUNCTION', 0);
+INSERT INTO SECURITYIDENTIFIER (DESCRIPTION, LASTWRITTEN, SIDNAME, SIDTYPE, VERSIONNO) VALUES (null, '2015-03-03 03:42:25', 'MOLSAEFTUserConfiguration.listAllUsersByPosition', 'FUNCTION', 0);
+INSERT INTO SECURITYIDENTIFIER (DESCRIPTION, LASTWRITTEN, SIDNAME, SIDTYPE, VERSIONNO) VALUES (null, '2015-03-03 03:42:25', 'MOLSAEFTUserConfiguration.listUsersConfiguredForEFTLetter', 'FUNCTION', 0);
+INSERT INTO SECURITYFIDSID(SIDNAME, FIDNAME, LASTWRITTEN) VALUES ('MOLSAEFTUserConfiguration.configureUsersForEFTLetterConfiguration','MOLSAEFTUserConfiguration.configureUsersForEFTLetterConfiguration');
+INSERT INTO SECURITYFIDSID(SIDNAME, FIDNAME, LASTWRITTEN) VALUES ('MOLSAEFTUserConfiguration.listAllUsersByPosition','MOLSAEFTUserConfiguration.listAllUsersByPosition');
+INSERT INTO SECURITYFIDSID(SIDNAME, FIDNAME, LASTWRITTEN) VALUES('MOLSAEFTUserConfiguration.listUsersConfiguredForEFTLetter','MOLSAEFTUserConfiguration.listUsersConfiguredForEFTLetter');
+INSERT INTO SECURITYGROUPSID (GROUPNAME, LASTWRITTEN, SIDNAME) VALUES ('SUPERGROUP', null, 'MOLSAEFTUserConfiguration.configureUsersForEFTLetterConfiguration');
+INSERT INTO SECURITYGROUPSID (GROUPNAME, LASTWRITTEN, SIDNAME) VALUES ('SUPERGROUP', null, 'MOLSAEFTUserConfiguration.listAllUsersByPosition');
+INSERT INTO SECURITYGROUPSID (GROUPNAME, LASTWRITTEN, SIDNAME) VALUES ('SUPERGROUP', null, 'MOLSAEFTUserConfiguration.listUsersConfiguredForEFTLetter');
+--Manger job Update
+update job set NAME='مدير ادارة الضمان الاجتماعي' , comments='مدير ادارة الضمان الاجتماعي' where jobid=45014;
+--Need to update Assistance Manager Job
+INSERT INTO JOB (COMMENTS, JOBID, NAME, RECORDSTATUS, VERSIONNO) VALUES ('Assistance manager', 45021, 'Assistance manager', 'RST1', 1);
+update POSITION  set jobid=45021 where positionid=45290;
+--New Job for General Secrartey وكيل الوزارة المساعد للشؤون الاجتماعية
+INSERT INTO JOB (COMMENTS, JOBID, NAME, RECORDSTATUS, VERSIONNO) VALUES ('General  Secretary', 45020, 'General Secretary', 'RST1', 1);
+INSERT INTO POSITION (COMMENTS, FROMDATE, JOBID, LASTWRITTEN, LEADPOSITIONIND, NAME, POSITIONID, RECORDSTATUS, TODATE, VERSIONNO) VALUES ('General Secretary', '2003-01-01', 45020, '2006-01-01 00:00:00', '0', 'General Secretary', 45349, 'RST1', null, 1);
+INSERT INTO ORGUNITPOSITIONLINK (ORGUNITPOSITIONLINKID, ORGANISATIONUNITID, POSITIONID, ORGANISATIONSTRUCTUREID, RECORDSTATUS, VERSIONNO) VALUES (45356, 45002, 45349,45000, 'RST1', 1);
+</t>
+  </si>
+  <si>
+    <t>Harisha</t>
   </si>
 </sst>
 </file>
@@ -427,9 +460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:I4"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +471,7 @@
     <col min="3" max="3" width="72.42578125" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" customWidth="1"/>
+    <col min="7" max="7" width="187.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="53.140625" customWidth="1"/>
   </cols>
@@ -472,9 +505,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="1"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -510,65 +550,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003520CC91E1C90A4F9689A135D663C63F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5bea9beecb72e899f05172e22af69af0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e967487d-3eea-483d-b969-e50e6c114ffa" xmlns:ns3="43475cab-d89f-451e-a1e3-4db005e0f558" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="438d5435a0413bb8242127eebe6f163c" ns2:_="" ns3:_="">
     <xsd:import namespace="e967487d-3eea-483d-b969-e50e6c114ffa"/>
@@ -752,6 +733,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -772,22 +812,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CD956-F256-4860-8B56-AE881D5ADEC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6F0B25-6AD0-4AF9-AE4F-0D8285608470}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0051AA5-43D6-41A0-9086-D5D3DFF72221}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -806,6 +830,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6F0B25-6AD0-4AF9-AE4F-0D8285608470}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CD956-F256-4860-8B56-AE881D5ADEC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1926F8BC-3749-487B-86BA-515B8CAD861D}">
   <ds:schemaRefs>

--- a/Development/Artifacts/Changes From 05 May.xlsx
+++ b/Development/Artifacts/Changes From 05 May.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Bugzilla Ticket No</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>Harisha</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Use inserttabconfifuration</t>
+  </si>
+  <si>
+    <t>Changes to Navigation Files - Service Offering.nav files</t>
   </si>
 </sst>
 </file>
@@ -460,9 +469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +527,15 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -550,6 +567,65 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003520CC91E1C90A4F9689A135D663C63F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5bea9beecb72e899f05172e22af69af0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e967487d-3eea-483d-b969-e50e6c114ffa" xmlns:ns3="43475cab-d89f-451e-a1e3-4db005e0f558" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="438d5435a0413bb8242127eebe6f163c" ns2:_="" ns3:_="">
     <xsd:import namespace="e967487d-3eea-483d-b969-e50e6c114ffa"/>
@@ -733,65 +809,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -812,6 +829,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CD956-F256-4860-8B56-AE881D5ADEC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6F0B25-6AD0-4AF9-AE4F-0D8285608470}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0051AA5-43D6-41A0-9086-D5D3DFF72221}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -830,22 +863,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6F0B25-6AD0-4AF9-AE4F-0D8285608470}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CD956-F256-4860-8B56-AE881D5ADEC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1926F8BC-3749-487B-86BA-515B8CAD861D}">
   <ds:schemaRefs>

--- a/Development/Artifacts/Changes From 05 May.xlsx
+++ b/Development/Artifacts/Changes From 05 May.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Bugzilla Ticket No</t>
   </si>
@@ -83,6 +83,20 @@
   </si>
   <si>
     <t>Changes to Navigation Files - Service Offering.nav files</t>
+  </si>
+  <si>
+    <t>EJBServer\components\MOLSA\data\initial\blob\Intake\properties\ieg\MOLSAApplication_V1_Intake_AboutClaimant.properties
+EJBServer\components\MOLSA\data\initial\clob\Intake\MOLSAIntakeScript.xml
+EJBServer\components\MOLSA\data\initial\clob\Screening\MOLSADataStoreSchema.xsd
+EJBServer\components\MOLSA\source\curam\molsa\constants\impl\MOLSADatastoreConst.java
+EJBServer\components\MOLSA\source\curam\rules\functions\CustomFunctionInitializeEntities.java
+EJBServer\components\MOLSA\source\curam\rules\functions\CustomFunctionUpdateEntities.java</t>
+  </si>
+  <si>
+    <t>Smitha</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -469,9 +483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,8 +556,22 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42129</v>
+      </c>
+      <c r="B5">
+        <v>377</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -567,65 +595,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003520CC91E1C90A4F9689A135D663C63F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5bea9beecb72e899f05172e22af69af0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e967487d-3eea-483d-b969-e50e6c114ffa" xmlns:ns3="43475cab-d89f-451e-a1e3-4db005e0f558" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="438d5435a0413bb8242127eebe6f163c" ns2:_="" ns3:_="">
     <xsd:import namespace="e967487d-3eea-483d-b969-e50e6c114ffa"/>
@@ -809,6 +778,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -829,22 +857,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CD956-F256-4860-8B56-AE881D5ADEC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6F0B25-6AD0-4AF9-AE4F-0D8285608470}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0051AA5-43D6-41A0-9086-D5D3DFF72221}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -863,6 +875,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6F0B25-6AD0-4AF9-AE4F-0D8285608470}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CD956-F256-4860-8B56-AE881D5ADEC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1926F8BC-3749-487B-86BA-515B8CAD861D}">
   <ds:schemaRefs>

--- a/Development/Artifacts/Changes From 05 May.xlsx
+++ b/Development/Artifacts/Changes From 05 May.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Bugzilla Ticket No</t>
   </si>
@@ -85,7 +85,14 @@
     <t>Changes to Navigation Files - Service Offering.nav files</t>
   </si>
   <si>
+    <t>Smitha</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>EJBServer\components\MOLSA\data\initial\blob\Intake\properties\ieg\MOLSAApplication_V1_Intake_AboutClaimant.properties
+EJBServer\components\MOLSA_ar\data\initial\blob\Intake\properties\ieg\MOLSAApplication_V1_Intake_AboutClaimant_ar.properties
 EJBServer\components\MOLSA\data\initial\clob\Intake\MOLSAIntakeScript.xml
 EJBServer\components\MOLSA\data\initial\clob\Screening\MOLSADataStoreSchema.xsd
 EJBServer\components\MOLSA\source\curam\molsa\constants\impl\MOLSADatastoreConst.java
@@ -93,10 +100,29 @@
 EJBServer\components\MOLSA\source\curam\rules\functions\CustomFunctionUpdateEntities.java</t>
   </si>
   <si>
-    <t>Smitha</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>EJBServer\components\MOLSA\source\curam\molsa\application\facade\impl\MOLSAApplication.java</t>
+  </si>
+  <si>
+    <t>EJBServer\components\MOLSA\CREOLE_Rule_Sets\AnonymousParentsEligibilityAndEntitlementRuleSet.xml
+EJBServer\components\MOLSA\CREOLE_Rule_Sets\DesertedWifeEligibilityAndEntitlementRuleSet.xml
+EJBServer\components\MOLSA\CREOLE_Rule_Sets\DivorcedLadyEligibilityAndEntitlementRuleSet.xml
+EJBServer\components\MOLSA\CREOLE_Rule_Sets\FamilyInNeedEligibilityAndEntitlementRuleSet.xml
+EJBServer\components\MOLSA\CREOLE_Rule_Sets\FamilyOfMissingEligibilityAndEntitlementRuleSet.xml
+EJBServer\components\MOLSA\CREOLE_Rule_Sets\FamilyOfPrisonerEligibilityAndEntitlementRuleSet.xml
+EJBServer\components\MOLSA\CREOLE_Rule_Sets\HandicapEligibilityAndEntitlementRuleSet.xml
+EJBServer\components\MOLSA\CREOLE_Rule_Sets\IncapableOfWorkingEligibilityAndEntitlementRuleSet.xml
+EJBServer\components\MOLSA\CREOLE_Rule_Sets\OrphanRuleSet.xml
+EJBServer\components\MOLSA\CREOLE_Rule_Sets\SeniorCitizenEligibilityAndEntitlementRuleSet.xml
+EJBServer\components\MOLSA\CREOLE_Rule_Sets\WidowEligibilityAndEntitlementRuleSet.xml</t>
+  </si>
+  <si>
+    <t>build creole.upload.rulesets</t>
   </si>
 </sst>
 </file>
@@ -483,15 +509,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="72.42578125" customWidth="1"/>
+    <col min="3" max="3" width="104.7109375" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="187.85546875" customWidth="1"/>
@@ -556,7 +582,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42129</v>
       </c>
@@ -564,24 +590,49 @@
         <v>377</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
       </c>
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="6"/>
+      <c r="B6">
+        <v>379</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="6"/>
+    <row r="7" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>378</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
       <c r="G7" s="1"/>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -595,6 +646,84 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">UQKZYU5EZKJQ-17-950</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">
+      <Url>https://dionatec.sharepoint.com/GlobalServices/_layouts/15/DocIdRedir.aspx?ID=UQKZYU5EZKJQ-17-950</Url>
+      <Description>UQKZYU5EZKJQ-17-950</Description>
+    </_dlc_DocIdUrl>
+    <SharedWithUsers xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003520CC91E1C90A4F9689A135D663C63F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5bea9beecb72e899f05172e22af69af0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e967487d-3eea-483d-b969-e50e6c114ffa" xmlns:ns3="43475cab-d89f-451e-a1e3-4db005e0f558" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="438d5435a0413bb8242127eebe6f163c" ns2:_="" ns3:_="">
     <xsd:import namespace="e967487d-3eea-483d-b969-e50e6c114ffa"/>
@@ -778,85 +907,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">UQKZYU5EZKJQ-17-950</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">
-      <Url>https://dionatec.sharepoint.com/GlobalServices/_layouts/15/DocIdRedir.aspx?ID=UQKZYU5EZKJQ-17-950</Url>
-      <Description>UQKZYU5EZKJQ-17-950</Description>
-    </_dlc_DocIdUrl>
-    <SharedWithUsers xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1926F8BC-3749-487B-86BA-515B8CAD861D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e967487d-3eea-483d-b969-e50e6c114ffa"/>
+    <ds:schemaRef ds:uri="43475cab-d89f-451e-a1e3-4db005e0f558"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CD956-F256-4860-8B56-AE881D5ADEC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6F0B25-6AD0-4AF9-AE4F-0D8285608470}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0051AA5-43D6-41A0-9086-D5D3DFF72221}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -873,37 +957,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6F0B25-6AD0-4AF9-AE4F-0D8285608470}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CD956-F256-4860-8B56-AE881D5ADEC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1926F8BC-3749-487B-86BA-515B8CAD861D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e967487d-3eea-483d-b969-e50e6c114ffa"/>
-    <ds:schemaRef ds:uri="43475cab-d89f-451e-a1e3-4db005e0f558"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Development/Artifacts/Changes From 05 May.xlsx
+++ b/Development/Artifacts/Changes From 05 May.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Bugzilla Ticket No</t>
   </si>
@@ -123,6 +123,50 @@
   </si>
   <si>
     <t>build creole.upload.rulesets</t>
+  </si>
+  <si>
+    <t>EJBServer/components/MOLSACP/source/curam/molsacp/impl/Module.java
+EJBServer/components/MOLSACP/source/curam/molsacp/impl/MOLSAScreeningHelper.java
+EJBServer/components/MOLSACP/source/curam/molsacp/eventlisteners/impl/MOLSAScreeningEventListener.java
+EJBServer/components/MOLSACP/model/Packages/Screening/Screening.efx
+EJBServer/components/MOLSACP/model/Packages/Domain Definition/Domain Definition.efx
+EJBServer/components/MOLSACP/data/initial/ModuleClassName.dmx</t>
+  </si>
+  <si>
+    <t>INSERT INTO MODULECLASSNAME (MODULECLASSNAME) VALUES ('curam.molsacp.impl.Module');
+CREATE TABLE MOLSASCREENINGINFO(
+SCREENINGINFOID BIGINT not null, 
+QID CHARACTER(18), 
+GENDER CHARACTER(10), 
+NAME CHARACTER(131), 
+DATEOFBIRTH DATE, 
+MARITALSTATUS CHARACTER(10), 
+QATARI CHARACTER(1) not null, 
+RESIDENT CHARACTER(1) not null, 
+SCHOOLENROLLED CHARACTER(1) not null, 
+PHONENUMBER CHARACTER(40), 
+ABSENTFATHER CHARACTER(1) not null, 
+UNKNOWNPARENT CHARACTER(1) not null, 
+HANDICAP CHARACTER(1) not null, 
+UNABLETOWORK CHARACTER(1) not null, 
+MAIDALLOWANCE CHARACTER(1) not null, 
+RELATEDID BIGINT, 
+VERSIONNO INT not null, 
+LASTWRITTEN TIMESTAMP
+);
+CREATE TABLE MOLSASCREENINGINCOMEINFO(
+SCREENINGINCOMEINFOID BIGINT not null, 
+SCREENINGINFOID BIGINT, 
+INCOMETYPE CHARACTER(10), 
+AMOUNT DECIMAL(31,2) not null, 
+FREQUENCY CHARACTER(10), 
+VERSIONNO INT not null, 
+LASTWRITTEN TIMESTAMP
+);
+ALTER TABLE MOLSASCREENINGINFO ADD
+CONSTRAINT MOLSASCREENINGINFO PRIMARY KEY(SCREENINGINFOID);
+ALTER TABLE MOLSASCREENINGINCOMEINFO ADD
+CONSTRAINT MOLSASCREENINGINCOMEINFO PRIMARY KEY(SCREENINGINCOMEINFOID);</t>
   </si>
 </sst>
 </file>
@@ -507,11 +551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,6 +676,23 @@
       <c r="G7" s="1"/>
       <c r="I7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>382</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Development/Artifacts/Changes From 05 May.xlsx
+++ b/Development/Artifacts/Changes From 05 May.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Bugzilla Ticket No</t>
   </si>
@@ -167,6 +167,22 @@
 CONSTRAINT MOLSASCREENINGINFO PRIMARY KEY(SCREENINGINFOID);
 ALTER TABLE MOLSASCREENINGINCOMEINFO ADD
 CONSTRAINT MOLSASCREENINGINCOMEINFO PRIMARY KEY(SCREENINGINCOMEINFOID);</t>
+  </si>
+  <si>
+    <t>EJBServer\components\MOLSA_ar\data\initial\WORKQUEUE.dmx
+EJBServer\components\MOLSA_ar\codetable\CT_ProgramWithdrawalRequestReason.ctx
+EJBServer\components\MOLSA\message\MOLSANotification.xml
+EJBServer\components\MOLSA\codetable\CT_ProgramWithdrawalRequestReason.ctx
+EJBServer\components\MOLSA\data\initial\clob\MOLSAIntakeConfiguration.xml
+EJBServer\components\MOLSA\data\initial\ALLOCATIONTARGET.dmx
+EJBServer\components\MOLSA\data\initial\ALLOCATIONTARGETITEM.dmx
+EJBServer\components\MOLSA\data\initial\MILESTONECONFIGURATION.dmx
+EJBServer\components\MOLSA\data\initial\WORKQUEUE.dmx
+EJBServer\components\MOLSA\events\handler_config.xml
+EJBServer\components\MOLSA\source\curam\molsa\constants\impl\MOLSAConstants.java
+EJBServer\components\MOLSA\source\curam\molsa\creoleprogramrecommendation\sl\event\impl\MOLSAApplicationDenialHandler.java
+EJBServer\components\MOLSA\source\curam\molsa\creoleprogramrecommendation\sl\event\impl\MolsaStatusChangedHandler.java
+EJBServer\components\MOLSA\workflow\MOLSAApplicationWithdrawTask_v1.xml</t>
   </si>
 </sst>
 </file>
@@ -551,11 +567,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,6 +711,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="9" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
@@ -707,84 +734,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">UQKZYU5EZKJQ-17-950</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">
-      <Url>https://dionatec.sharepoint.com/GlobalServices/_layouts/15/DocIdRedir.aspx?ID=UQKZYU5EZKJQ-17-950</Url>
-      <Description>UQKZYU5EZKJQ-17-950</Description>
-    </_dlc_DocIdUrl>
-    <SharedWithUsers xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003520CC91E1C90A4F9689A135D663C63F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5bea9beecb72e899f05172e22af69af0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e967487d-3eea-483d-b969-e50e6c114ffa" xmlns:ns3="43475cab-d89f-451e-a1e3-4db005e0f558" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="438d5435a0413bb8242127eebe6f163c" ns2:_="" ns3:_="">
     <xsd:import namespace="e967487d-3eea-483d-b969-e50e6c114ffa"/>
@@ -968,40 +917,85 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">UQKZYU5EZKJQ-17-950</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">
+      <Url>https://dionatec.sharepoint.com/GlobalServices/_layouts/15/DocIdRedir.aspx?ID=UQKZYU5EZKJQ-17-950</Url>
+      <Description>UQKZYU5EZKJQ-17-950</Description>
+    </_dlc_DocIdUrl>
+    <SharedWithUsers xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1926F8BC-3749-487B-86BA-515B8CAD861D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e967487d-3eea-483d-b969-e50e6c114ffa"/>
-    <ds:schemaRef ds:uri="43475cab-d89f-451e-a1e3-4db005e0f558"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CD956-F256-4860-8B56-AE881D5ADEC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6F0B25-6AD0-4AF9-AE4F-0D8285608470}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0051AA5-43D6-41A0-9086-D5D3DFF72221}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1018,4 +1012,37 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6F0B25-6AD0-4AF9-AE4F-0D8285608470}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CD956-F256-4860-8B56-AE881D5ADEC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1926F8BC-3749-487B-86BA-515B8CAD861D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e967487d-3eea-483d-b969-e50e6c114ffa"/>
+    <ds:schemaRef ds:uri="43475cab-d89f-451e-a1e3-4db005e0f558"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Development/Artifacts/Changes From 05 May.xlsx
+++ b/Development/Artifacts/Changes From 05 May.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Bugzilla Ticket No</t>
   </si>
@@ -89,15 +89,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>EJBServer\components\MOLSA\data\initial\blob\Intake\properties\ieg\MOLSAApplication_V1_Intake_AboutClaimant.properties
-EJBServer\components\MOLSA_ar\data\initial\blob\Intake\properties\ieg\MOLSAApplication_V1_Intake_AboutClaimant_ar.properties
-EJBServer\components\MOLSA\data\initial\clob\Intake\MOLSAIntakeScript.xml
-EJBServer\components\MOLSA\data\initial\clob\Screening\MOLSADataStoreSchema.xsd
-EJBServer\components\MOLSA\source\curam\molsa\constants\impl\MOLSADatastoreConst.java
-EJBServer\components\MOLSA\source\curam\rules\functions\CustomFunctionInitializeEntities.java
-EJBServer\components\MOLSA\source\curam\rules\functions\CustomFunctionUpdateEntities.java</t>
   </si>
   <si>
     <t>Ramesh</t>
@@ -183,6 +174,23 @@
 EJBServer\components\MOLSA\source\curam\molsa\creoleprogramrecommendation\sl\event\impl\MOLSAApplicationDenialHandler.java
 EJBServer\components\MOLSA\source\curam\molsa\creoleprogramrecommendation\sl\event\impl\MolsaStatusChangedHandler.java
 EJBServer\components\MOLSA\workflow\MOLSAApplicationWithdrawTask_v1.xml</t>
+  </si>
+  <si>
+    <t>EJBServer\components\MOLSA\data\initial\blob\Intake\properties\ieg\MOLSAApplication_V1_Intake_AboutClaimant.properties
+EJBServer\components\MOLSA_ar\data\initial\blob\Intake\properties\ieg\MOLSAApplication_V1_Intake_AboutClaimant_ar.properties
+EJBServer\components\MOLSA\data\initial\clob\Intake\MOLSAIntakeScript.xml
+EJBServer\components\MOLSA\data\initial\clob\Screening\MOLSADataStoreSchema.xsd
+EJBServer\components\MOLSA\source\curam\molsa\constants\impl\MOLSADatastoreConst.java
+EJBServer\components\MOLSA\source\curam\rules\functions\CustomFunctionInitializeEntities.java
+EJBServer\components\MOLSA\source\curam\rules\functions\CustomFunctionUpdateEntities.java
+EJBServer\components\MOLSA_ar\data\initial\blob\Intake\properties\ieg\MOLSAApplication_V1_Intake_AboutClaimantSummary_ar.properties
+EJBServer\components\MOLSA_ar\data\initial\blob\Intake\properties\ieg\MOLSAApplication_V1_Intake_ApplicationSummary_ar.properties
+EJBServer\components\MOLSA\data\initial\blob\Intake\properties\ieg\MOLSAApplication_V1_Intake_AboutClaimantSummary.properties
+EJBServer\components\MOLSA\data\initial\blob\Intake\properties\ieg\MOLSAApplication_V1_Intake_ApplicationSummary.properties</t>
+  </si>
+  <si>
+    <t>05-05-2015
+13-05-2015</t>
   </si>
 </sst>
 </file>
@@ -247,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -261,6 +269,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,8 +581,8 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,15 +653,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>42129</v>
+    <row r="5" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B5">
         <v>377</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -666,13 +677,13 @@
         <v>379</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
       </c>
       <c r="I6" s="6"/>
     </row>
@@ -681,7 +692,7 @@
         <v>378</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -691,7 +702,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -699,21 +710,27 @@
         <v>382</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>42136</v>
+      </c>
+      <c r="B9">
+        <v>384</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -734,6 +751,65 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003520CC91E1C90A4F9689A135D663C63F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5bea9beecb72e899f05172e22af69af0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e967487d-3eea-483d-b969-e50e6c114ffa" xmlns:ns3="43475cab-d89f-451e-a1e3-4db005e0f558" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="438d5435a0413bb8242127eebe6f163c" ns2:_="" ns3:_="">
     <xsd:import namespace="e967487d-3eea-483d-b969-e50e6c114ffa"/>
@@ -917,65 +993,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -996,6 +1013,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CD956-F256-4860-8B56-AE881D5ADEC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6F0B25-6AD0-4AF9-AE4F-0D8285608470}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0051AA5-43D6-41A0-9086-D5D3DFF72221}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1014,22 +1047,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6F0B25-6AD0-4AF9-AE4F-0D8285608470}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CD956-F256-4860-8B56-AE881D5ADEC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1926F8BC-3749-487B-86BA-515B8CAD861D}">
   <ds:schemaRefs>

--- a/Development/Artifacts/Changes From 05 May.xlsx
+++ b/Development/Artifacts/Changes From 05 May.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Bugzilla Ticket No</t>
   </si>
@@ -191,6 +191,20 @@
   <si>
     <t>05-05-2015
 13-05-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EJBServer\components\MOLSA\workflow\MOLSAApplicationRejectTask_v1.xml  
+EJBServer\components\MOLSA\workflow\MOLSAApplicationWithdrawTask_v1.xml  
+EJBServer\components\MOLSA\workflow\MOLSAPaymentCorrectionCaseApprovalTask_v1.xml  
+EJBServer\components\MOLSA\workflow\MOLSAProductDeliveryApprovalProcessTask_v1.xml  
+EJBServer\components\MOLSA\workflow\MOLSAProductDeliveryAuthorizationTask_v1.xml  
+EJBServer\components\MOLSA\workflow\MOLSAProductDeliveryOpenTask_v1.xml  
+EJBServer\components\MOLSA\workflow\MOLSAProductDeliveryRejectTask_v1.xml  
+EJBServer\components\MOLSA\workflow\READYFORDETERMINATIONTASK_v2.xml  
+</t>
+  </si>
+  <si>
+    <t>Import the workflow from admin and release the process.</t>
   </si>
 </sst>
 </file>
@@ -578,11 +592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,6 +751,23 @@
       </c>
       <c r="F9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>42137</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Development/Artifacts/Changes From 05 May.xlsx
+++ b/Development/Artifacts/Changes From 05 May.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Bugzilla Ticket No</t>
   </si>
@@ -204,7 +204,22 @@
 </t>
   </si>
   <si>
-    <t>Import the workflow from admin and release the process.</t>
+    <t>Import the intake script from the admin.</t>
+  </si>
+  <si>
+    <t>Import the workflow from admin and release the process.
+Or 
+importworkflows -Dworkflow.dir=  -Doverwrite=true</t>
+  </si>
+  <si>
+    <t>Import using the admin</t>
+  </si>
+  <si>
+    <t>INSERT INTO WORKQUEUE (ADMINISTRATORUSERNAME, ALLOWUSERSUBSCRIPTIONIND, COMMENTS, LASTWRITTEN, NAME, SENSITIVITY, UPPERNAME, VERSIONNO, WORKQUEUEID) VALUES ('admin', '1', 'This work queue is used to assign tasks to case workers when the applications have exceeded 90 days.', '2001-01-01 00:00:00', 'Application Follow-up: Applications that have exceeded 90 days', '1', 'APPLICATION FOLLOW-UP: APPLICATIONS THAT HAVE EXCEEDED 90 DAYS', 1, 45012);
+INSERT INTO ALLOCATIONTARGETITEM (ALLOCATIONTARGETID, ALLOCATIONTARGETITEMID, RELATEDID, RELATEDNAME, TYPE) VALUES ('ApplicationFollowUp', 45005, 45012, 'ApplicationFollowUp', 'RL23');
+INSERT INTO ALLOCATIONTARGET (ALLOCATIONTARGETID, COMMENTS, NAME) VALUES ('ApplicationFollowUp', 'Application follow up work queue for the case worker.', 'ApplicationFollowUp');
+update milestoneconfiguration set duration=90 where milestoneConfigurationID=45001;
+INSERT INTO WORKQUEUE (ADMINISTRATORUSERNAME, ALLOWUSERSUBSCRIPTIONIND, COMMENTS, LASTWRITTEN, NAME, SENSITIVITY, UPPERNAME, VERSIONNO, WORKQUEUEID) VALUES ('admin', '1', 'This work queue is used to assign tasks to case workers when the applications have exceeded 90 days.', '2001-01-01 00:00:00', 'متابعة الطلب : الطلبات التي تجاوزت 90 يوما', '1', 'APPLICATION FOLLOW-UP: APPLICATIONS THAT HAVE EXCEEDED 90 DAYS', 1, 45012);</t>
   </si>
 </sst>
 </file>
@@ -594,9 +609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +699,9 @@
         <v>16</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -752,6 +769,12 @@
       <c r="F9" t="s">
         <v>16</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -766,8 +789,8 @@
       <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
+      <c r="I10" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -782,65 +805,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">UQKZYU5EZKJQ-17-950</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">
+      <Url>https://dionatec.sharepoint.com/GlobalServices/_layouts/15/DocIdRedir.aspx?ID=UQKZYU5EZKJQ-17-950</Url>
+      <Description>UQKZYU5EZKJQ-17-950</Description>
+    </_dlc_DocIdUrl>
+    <SharedWithUsers xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003520CC91E1C90A4F9689A135D663C63F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5bea9beecb72e899f05172e22af69af0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e967487d-3eea-483d-b969-e50e6c114ffa" xmlns:ns3="43475cab-d89f-451e-a1e3-4db005e0f558" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="438d5435a0413bb8242127eebe6f163c" ns2:_="" ns3:_="">
     <xsd:import namespace="e967487d-3eea-483d-b969-e50e6c114ffa"/>
@@ -1024,42 +1007,83 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">UQKZYU5EZKJQ-17-950</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">
-      <Url>https://dionatec.sharepoint.com/GlobalServices/_layouts/15/DocIdRedir.aspx?ID=UQKZYU5EZKJQ-17-950</Url>
-      <Description>UQKZYU5EZKJQ-17-950</Description>
-    </_dlc_DocIdUrl>
-    <SharedWithUsers xmlns="e967487d-3eea-483d-b969-e50e6c114ffa">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CD956-F256-4860-8B56-AE881D5ADEC8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1926F8BC-3749-487B-86BA-515B8CAD861D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e967487d-3eea-483d-b969-e50e6c114ffa"/>
+    <ds:schemaRef ds:uri="43475cab-d89f-451e-a1e3-4db005e0f558"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6F0B25-6AD0-4AF9-AE4F-0D8285608470}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0051AA5-43D6-41A0-9086-D5D3DFF72221}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1078,19 +1102,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE6F0B25-6AD0-4AF9-AE4F-0D8285608470}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1926F8BC-3749-487B-86BA-515B8CAD861D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CD956-F256-4860-8B56-AE881D5ADEC8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e967487d-3eea-483d-b969-e50e6c114ffa"/>
-    <ds:schemaRef ds:uri="43475cab-d89f-451e-a1e3-4db005e0f558"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>